--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4020.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value4020.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.736748484935788</v>
+        <v>5.147176742553711</v>
       </c>
       <c r="B1">
-        <v>2.540103778849546</v>
+        <v>5.374391078948975</v>
       </c>
       <c r="C1">
-        <v>3.047334692458364</v>
+        <v>5.378048896789551</v>
       </c>
       <c r="D1">
-        <v>3.357346475627068</v>
+        <v>9.033856391906738</v>
       </c>
       <c r="E1">
-        <v>2.086175860332958</v>
+        <v>7.45313835144043</v>
       </c>
     </row>
   </sheetData>
